--- a/KM5c_data/ODP_Site_625.xlsx
+++ b/KM5c_data/ODP_Site_625.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Van der Weijst et al. (in prep)</t>
+          <t>van der Weijst and Peterse (Unpublished data)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="L2">
-        <v>25.04551062</v>
+        <v>25.3</v>
       </c>
       <c r="M2">
-        <v>2.87448938</v>
+        <v>2.621301235622827</v>
       </c>
       <c r="N2">
-        <v>3.791653789999998</v>
+        <v>3.538465645622825</v>
       </c>
     </row>
   </sheetData>
